--- a/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
+++ b/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\CCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ccs\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2AF75-4449-4234-82F2-ED89CB505329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7172B8-79FD-4360-98F3-E9249B18DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1068,9 +1068,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1117,10 +1115,10 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
